--- a/CalculosTest.xlsx
+++ b/CalculosTest.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TIR_NRAPHSON" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DayCountFraction" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Bono" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Swap" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Deposit" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="10000" refMode="A1" iterate="true" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Y_n</t>
   </si>
@@ -116,13 +117,37 @@
   </si>
   <si>
     <t xml:space="preserve">El forward para el primero ya viene fijado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha Vencimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor a vencimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curva descuento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
@@ -131,8 +156,9 @@
     <numFmt numFmtId="169" formatCode="0\ %"/>
     <numFmt numFmtId="170" formatCode="0"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="172" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -155,8 +181,24 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +229,12 @@
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -231,7 +279,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,15 +320,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,7 +402,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -367,9 +439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
+      <xdr:colOff>484200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -383,7 +455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4348800" cy="523440"/>
+          <a:ext cx="4349160" cy="522720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -409,9 +481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>188640</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -425,7 +497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2286000"/>
-          <a:ext cx="7793280" cy="3618720"/>
+          <a:ext cx="7795800" cy="3618000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -451,7 +523,7 @@
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
   </cols>
@@ -480,7 +552,7 @@
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">((3*EXP(-($H$6+0.001)*0.5)+3*EXP(-($H$6+0.001))+3*EXP(-($H$6+0.001)*1.5)+103*EXP(-($H$6+0.001)*2)-98.39)-H7)/0.001</f>
-        <v>-188.085643045795</v>
+        <v>-188.08564304581</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,7 +596,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.43"/>
@@ -668,7 +740,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.71"/>
@@ -767,14 +839,13 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
@@ -820,7 +891,7 @@
       <c r="A2" s="4" t="n">
         <v>42461</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -834,7 +905,7 @@
       <c r="A3" s="4" t="n">
         <v>42646</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="11" t="n">
         <v>4.74</v>
       </c>
       <c r="C3" s="5" t="n">
@@ -849,7 +920,7 @@
       </c>
       <c r="F3" s="5" t="n">
         <f aca="false">EXP(-C3*B3%)</f>
-        <v>0.975935936716658</v>
+        <v>0.975935936716659</v>
       </c>
       <c r="G3" s="5" t="n">
         <f aca="false">$G$16*$G$17% * C3</f>
@@ -872,7 +943,7 @@
       <c r="A4" s="4" t="n">
         <v>42828</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="5" t="n">
@@ -912,7 +983,7 @@
       <c r="A5" s="4" t="n">
         <v>43010</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="11" t="n">
         <v>5.1</v>
       </c>
       <c r="C5" s="5" t="n">
@@ -952,7 +1023,7 @@
       <c r="A6" s="4" t="n">
         <v>43192</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="11" t="n">
         <v>5.2</v>
       </c>
       <c r="C6" s="5" t="n">
@@ -987,9 +1058,6 @@
         <f aca="false">I6*F6</f>
         <v>-0.283803492647891</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -1055,4 +1123,107 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C6:D15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24.59"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <f aca="false">YEARFRAC(D6,D7,2)</f>
+        <v>0.513888888888889</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>0.0474</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <f aca="false">(D8*D9*D10)+D9</f>
+        <v>102.569444444444</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="17" t="n">
+        <f aca="false">EXP(-D10*D11)</f>
+        <v>0.975935936716659</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <f aca="false">D14*D13</f>
+        <v>100.101206842396</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/CalculosTest.xlsx
+++ b/CalculosTest.xlsx
@@ -158,7 +158,7 @@
     <numFmt numFmtId="171" formatCode="0.00"/>
     <numFmt numFmtId="172" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,6 +180,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -279,7 +285,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,7 +334,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,11 +358,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -439,9 +449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,7 +465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4348800" cy="522360"/>
+          <a:ext cx="4348440" cy="522000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -481,9 +491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,7 +507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2286000"/>
-          <a:ext cx="7795440" cy="3617640"/>
+          <a:ext cx="7795080" cy="3617280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -520,7 +530,7 @@
   <dimension ref="G6:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="1" sqref="F3:F6 H7"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +603,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="F3:F6 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -737,7 +747,7 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="F3:F6 F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -840,7 +850,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F6"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -912,11 +922,11 @@
         <f aca="false">YEARFRAC(A2,A3,2)</f>
         <v>0.513888888888889</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>0.048</v>
+      <c r="D3" s="12" t="n">
+        <v>0.0479662</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.048</v>
+        <v>0.0479662</v>
       </c>
       <c r="F3" s="5" t="n">
         <f aca="false">EXP(-A10*B3%)</f>
@@ -928,15 +938,15 @@
       </c>
       <c r="H3" s="5" t="n">
         <f aca="false">$G$16*E3*C3</f>
-        <v>2.46666666666667</v>
+        <v>2.46492972222222</v>
       </c>
       <c r="I3" s="5" t="n">
         <f aca="false">H3-G3</f>
-        <v>-0.10277777777777</v>
+        <v>-0.104514722222217</v>
       </c>
       <c r="J3" s="5" t="n">
         <f aca="false">I3*F3</f>
-        <v>-0.100304526829205</v>
+        <v>-0.101999673332621</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,7 +1121,7 @@
       </c>
       <c r="G18" s="5" t="n">
         <f aca="false">SUM(J3:J6)</f>
-        <v>0.497431432148545</v>
+        <v>0.495736285645129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,16 +1148,16 @@
   <dimension ref="C6:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="F3:F6 G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="24.6"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -1155,7 +1165,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -1163,15 +1173,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="14" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -1179,27 +1189,27 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="15" t="n">
         <f aca="false">YEARFRAC(D6,D7,2)</f>
         <v>0.513888888888889</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="16" t="n">
         <v>0.0474</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="17" t="n">
         <f aca="false">(D8*D9*D10)+D9</f>
         <v>102.569444444444</v>
       </c>
@@ -1208,16 +1218,16 @@
       <c r="C14" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="18" t="n">
         <f aca="false">EXP(-D10*D11)</f>
         <v>0.975935936716659</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <f aca="false">D14*D13</f>
         <v>100.101206842396</v>
       </c>
